--- a/teaching/traditional_assets/database/data/mauritius/mauritius_computer_services.xlsx
+++ b/teaching/traditional_assets/database/data/mauritius/mauritius_computer_services.xlsx
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="G2">
-        <v>-0.05836820083682009</v>
+        <v>-0.2016786570743405</v>
       </c>
       <c r="H2">
-        <v>-0.05836820083682009</v>
+        <v>-0.2016786570743405</v>
       </c>
       <c r="I2">
-        <v>-0.06537137777014912</v>
+        <v>-0.2033737362369499</v>
       </c>
       <c r="J2">
-        <v>-0.06537137777014912</v>
+        <v>-0.2033737362369499</v>
       </c>
       <c r="K2">
-        <v>-12.6</v>
+        <v>-13.5</v>
       </c>
       <c r="L2">
-        <v>-0.2635983263598327</v>
+        <v>-0.3237410071942446</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -630,73 +630,70 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>3.69</v>
+        <v>3.08</v>
       </c>
       <c r="V2">
-        <v>0.2038674033149171</v>
+        <v>0.2444444444444445</v>
       </c>
       <c r="W2">
-        <v>-0.2587268993839836</v>
+        <v>-0.3221957040572793</v>
       </c>
       <c r="X2">
-        <v>0.08937449717125866</v>
+        <v>0.07237375114035592</v>
       </c>
       <c r="Y2">
-        <v>-0.3481013965552422</v>
+        <v>-0.3945694551976352</v>
       </c>
       <c r="Z2">
-        <v>8.154548431470703</v>
+        <v>2.557901817924558</v>
       </c>
       <c r="AA2">
-        <v>-0.5330740660586483</v>
+        <v>-0.5202100496386037</v>
       </c>
       <c r="AB2">
-        <v>0.08653639290251521</v>
+        <v>0.07221269088354096</v>
       </c>
       <c r="AC2">
-        <v>-0.6196104589611635</v>
+        <v>-0.5924227405221447</v>
       </c>
       <c r="AD2">
-        <v>0.234</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.9637592870656368</v>
+        <v>0.0584240054040556</v>
       </c>
       <c r="AF2">
-        <v>1.197759287065637</v>
+        <v>0.0584240054040556</v>
       </c>
       <c r="AG2">
-        <v>-2.492240712934363</v>
+        <v>-3.021575994595945</v>
       </c>
       <c r="AH2">
-        <v>0.06206727264281078</v>
+        <v>0.004615424904325656</v>
       </c>
       <c r="AI2">
-        <v>0.02785631872277448</v>
+        <v>0.002003675006345598</v>
       </c>
       <c r="AJ2">
-        <v>-0.1596795969937669</v>
+        <v>-0.3154564877156409</v>
       </c>
       <c r="AK2">
-        <v>-0.06340327604871754</v>
+        <v>-0.1158649768854822</v>
       </c>
       <c r="AL2">
-        <v>0.029</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>-0.138</v>
+        <v>-0.253</v>
       </c>
       <c r="AN2">
-        <v>-0.08533916849015317</v>
-      </c>
-      <c r="AO2">
-        <v>-110.6896551724138</v>
+        <v>-0</v>
       </c>
       <c r="AP2">
-        <v>0.908913462047543</v>
+        <v>0.3662960352280209</v>
       </c>
       <c r="AQ2">
-        <v>23.26086956521739</v>
+        <v>33.71541501976284</v>
       </c>
     </row>
     <row r="3">
@@ -716,22 +713,22 @@
         </is>
       </c>
       <c r="G3">
-        <v>-0.05836820083682009</v>
+        <v>-0.2016786570743405</v>
       </c>
       <c r="H3">
-        <v>-0.05836820083682009</v>
+        <v>-0.2016786570743405</v>
       </c>
       <c r="I3">
-        <v>-0.06537137777014912</v>
+        <v>-0.2033737362369499</v>
       </c>
       <c r="J3">
-        <v>-0.06537137777014912</v>
+        <v>-0.2033737362369499</v>
       </c>
       <c r="K3">
-        <v>-12.6</v>
+        <v>-13.5</v>
       </c>
       <c r="L3">
-        <v>-0.2635983263598327</v>
+        <v>-0.3237410071942446</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -755,73 +752,70 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>3.69</v>
+        <v>3.08</v>
       </c>
       <c r="V3">
-        <v>0.2038674033149171</v>
+        <v>0.2444444444444445</v>
       </c>
       <c r="W3">
-        <v>-0.2587268993839836</v>
+        <v>-0.3221957040572793</v>
       </c>
       <c r="X3">
-        <v>0.08937449717125866</v>
+        <v>0.07237375114035592</v>
       </c>
       <c r="Y3">
-        <v>-0.3481013965552422</v>
+        <v>-0.3945694551976352</v>
       </c>
       <c r="Z3">
-        <v>8.154548431470703</v>
+        <v>2.557901817924558</v>
       </c>
       <c r="AA3">
-        <v>-0.5330740660586483</v>
+        <v>-0.5202100496386037</v>
       </c>
       <c r="AB3">
-        <v>0.08653639290251521</v>
+        <v>0.07221269088354096</v>
       </c>
       <c r="AC3">
-        <v>-0.6196104589611635</v>
+        <v>-0.5924227405221447</v>
       </c>
       <c r="AD3">
-        <v>0.234</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.9637592870656368</v>
+        <v>0.0584240054040556</v>
       </c>
       <c r="AF3">
-        <v>1.197759287065637</v>
+        <v>0.0584240054040556</v>
       </c>
       <c r="AG3">
-        <v>-2.492240712934363</v>
+        <v>-3.021575994595945</v>
       </c>
       <c r="AH3">
-        <v>0.06206727264281078</v>
+        <v>0.004615424904325656</v>
       </c>
       <c r="AI3">
-        <v>0.02785631872277448</v>
+        <v>0.002003675006345598</v>
       </c>
       <c r="AJ3">
-        <v>-0.1596795969937669</v>
+        <v>-0.3154564877156409</v>
       </c>
       <c r="AK3">
-        <v>-0.06340327604871754</v>
+        <v>-0.1158649768854822</v>
       </c>
       <c r="AL3">
-        <v>0.029</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>-0.138</v>
+        <v>-0.253</v>
       </c>
       <c r="AN3">
-        <v>-0.08533916849015317</v>
-      </c>
-      <c r="AO3">
-        <v>-110.6896551724138</v>
+        <v>-0</v>
       </c>
       <c r="AP3">
-        <v>0.908913462047543</v>
+        <v>0.3662960352280209</v>
       </c>
       <c r="AQ3">
-        <v>23.26086956521739</v>
+        <v>33.71541501976284</v>
       </c>
     </row>
   </sheetData>
